--- a/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/united_arab_emirates/united_arab_emirates_financial_svcs_non_bank_insurance.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,121 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.006499999999999978</v>
+        <v>-0.05045</v>
       </c>
       <c r="E2">
-        <v>-0.306</v>
+        <v>-0.252</v>
       </c>
       <c r="G2">
-        <v>0.02105263157894739</v>
+        <v>0.07548679647906108</v>
       </c>
       <c r="H2">
-        <v>0.02105263157894739</v>
+        <v>0.07548679647906108</v>
       </c>
       <c r="I2">
-        <v>-0.04692982456140352</v>
+        <v>0.06375033342224593</v>
       </c>
       <c r="J2">
-        <v>-0.04692982456140352</v>
+        <v>0.06375033342224593</v>
       </c>
       <c r="K2">
-        <v>-184.6</v>
+        <v>-100.42</v>
       </c>
       <c r="L2">
-        <v>-0.8096491228070176</v>
+        <v>-0.2678580954921312</v>
       </c>
       <c r="M2">
-        <v>37.5</v>
+        <v>63.301</v>
       </c>
       <c r="N2">
-        <v>0.01337327484754467</v>
+        <v>0.0188896183342783</v>
       </c>
       <c r="O2">
-        <v>-0.2031419284940411</v>
+        <v>-0.6303624775941049</v>
       </c>
       <c r="P2">
-        <v>37.5</v>
+        <v>53.39</v>
       </c>
       <c r="Q2">
-        <v>0.01337327484754467</v>
+        <v>0.01593208200292441</v>
       </c>
       <c r="R2">
-        <v>-0.2031419284940411</v>
+        <v>-0.5316669986058555</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>9.911</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.1565694064864694</v>
       </c>
       <c r="U2">
-        <v>526.1</v>
+        <v>761.057</v>
       </c>
       <c r="V2">
-        <v>0.1876181305944866</v>
+        <v>0.2271066217063054</v>
       </c>
       <c r="W2">
-        <v>-0.1586251761899599</v>
+        <v>0.01347258485639687</v>
       </c>
       <c r="X2">
-        <v>0.02847308861078008</v>
+        <v>0.02058401163005389</v>
       </c>
       <c r="Y2">
-        <v>-0.18709826480074</v>
+        <v>-0.007111426773657026</v>
       </c>
       <c r="Z2">
-        <v>0.0566418817029332</v>
+        <v>0.08345768134570558</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.02660777548307719</v>
+        <v>0.01759935977475864</v>
       </c>
       <c r="AC2">
-        <v>-0.02660777548307719</v>
+        <v>-0.01643013405325759</v>
       </c>
       <c r="AD2">
-        <v>1652.4</v>
+        <v>2010</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>1652.4</v>
+        <v>2010</v>
       </c>
       <c r="AG2">
-        <v>1126.3</v>
+        <v>1248.943</v>
       </c>
       <c r="AH2">
-        <v>0.3707842477280377</v>
+        <v>0.3749230568353509</v>
       </c>
       <c r="AI2">
-        <v>0.3150969661142999</v>
+        <v>0.3319515780086208</v>
       </c>
       <c r="AJ2">
-        <v>0.2865611642580908</v>
+        <v>0.2715068098276473</v>
       </c>
       <c r="AK2">
-        <v>0.2387240356083087</v>
+        <v>0.2359147819539811</v>
       </c>
       <c r="AL2">
-        <v>55.656</v>
+        <v>49.94</v>
       </c>
       <c r="AM2">
-        <v>-9.443999999999996</v>
+        <v>-27.86</v>
       </c>
       <c r="AN2">
-        <v>96.63157894736842</v>
+        <v>32.21153846153846</v>
       </c>
       <c r="AO2">
-        <v>-0.1922524076469743</v>
+        <v>0.4785742891469763</v>
       </c>
       <c r="AP2">
-        <v>65.8654970760234</v>
+        <v>20.01511217948718</v>
       </c>
       <c r="AQ2">
-        <v>1.132994493858535</v>
+        <v>-0.8578607322325914</v>
       </c>
     </row>
     <row r="3">
@@ -725,118 +725,121 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.186</v>
+        <v>-0.0911</v>
       </c>
       <c r="E3">
-        <v>-0.306</v>
+        <v>-0.177</v>
       </c>
       <c r="G3">
-        <v>0.5993227990970655</v>
+        <v>0.5365853658536585</v>
       </c>
       <c r="H3">
-        <v>0.5993227990970655</v>
+        <v>0.5365853658536585</v>
       </c>
       <c r="I3">
-        <v>0.3724604966139955</v>
+        <v>0.4298780487804877</v>
       </c>
       <c r="J3">
-        <v>0.3724604966139955</v>
+        <v>0.4298780487804877</v>
       </c>
       <c r="K3">
-        <v>31.9</v>
+        <v>39.5</v>
       </c>
       <c r="L3">
-        <v>0.3600451467268623</v>
+        <v>0.4014227642276422</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>45.5</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02247468510743393</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>1.151898734177215</v>
       </c>
       <c r="P3">
-        <v>-0</v>
+        <v>45.5</v>
       </c>
       <c r="Q3">
-        <v>-0</v>
+        <v>0.02247468510743393</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>1.151898734177215</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
       <c r="U3">
-        <v>256.4</v>
+        <v>420.5</v>
       </c>
       <c r="V3">
-        <v>0.1214245122182231</v>
+        <v>0.2077056063225488</v>
       </c>
       <c r="W3">
-        <v>0.01504575040090558</v>
+        <v>0.01850117096018735</v>
       </c>
       <c r="X3">
-        <v>0.02773481928272324</v>
+        <v>0.01786997086991519</v>
       </c>
       <c r="Y3">
-        <v>-0.01268906888181767</v>
+        <v>0.0006312000902721632</v>
       </c>
       <c r="Z3">
-        <v>0.07773361759622388</v>
+        <v>0.08873658580575347</v>
       </c>
       <c r="AA3">
-        <v>0.02895270181349197</v>
+        <v>0.03814591036161963</v>
       </c>
       <c r="AB3">
-        <v>0.02764740843121028</v>
+        <v>0.01781342183531842</v>
       </c>
       <c r="AC3">
-        <v>0.001305293382281688</v>
+        <v>0.02033248852630121</v>
       </c>
       <c r="AD3">
-        <v>14.1</v>
+        <v>15.9</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.1</v>
+        <v>15.9</v>
       </c>
       <c r="AG3">
-        <v>-242.3</v>
+        <v>-404.6</v>
       </c>
       <c r="AH3">
-        <v>0.006633109093475091</v>
+        <v>0.007792589688296412</v>
       </c>
       <c r="AI3">
-        <v>0.006543834408502344</v>
+        <v>0.007479537115438893</v>
       </c>
       <c r="AJ3">
-        <v>-0.1296207136361205</v>
+        <v>-0.2497685042286561</v>
       </c>
       <c r="AK3">
-        <v>-0.1276405204656798</v>
+        <v>-0.2372603061044977</v>
       </c>
       <c r="AL3">
-        <v>0.656</v>
+        <v>1.1</v>
       </c>
       <c r="AM3">
-        <v>0.656</v>
+        <v>1.1</v>
       </c>
       <c r="AN3">
-        <v>0.2625698324022346</v>
+        <v>0.2602291325695581</v>
       </c>
       <c r="AO3">
-        <v>50.30487804878049</v>
+        <v>38.45454545454545</v>
       </c>
       <c r="AP3">
-        <v>-4.512104283054003</v>
+        <v>-6.621931260229132</v>
       </c>
       <c r="AQ3">
-        <v>50.30487804878049</v>
+        <v>38.45454545454545</v>
       </c>
     </row>
     <row r="4">
@@ -847,7 +850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Amlak Finance PJSC (DFM:AMLAK)</t>
+          <t>SHUAA Capital PSC (DFM:SHUAA)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -856,31 +859,31 @@
         </is>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.176248821866164</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.176248821866164</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2243166823751178</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2243166823751178</v>
       </c>
       <c r="K4">
-        <v>-70.2</v>
+        <v>37.6</v>
       </c>
       <c r="L4">
-        <v>-1.363106796116505</v>
+        <v>0.3543826578699341</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>6.8</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.01448657861099276</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.1808510638297872</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -889,67 +892,82 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>6.8</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>53.3</v>
+        <v>0.007</v>
       </c>
       <c r="V4">
-        <v>0.2776041666666667</v>
+        <v>1.491265445249255e-05</v>
       </c>
       <c r="W4">
-        <v>-0.1867517956903432</v>
+        <v>0.1032683328755836</v>
       </c>
       <c r="X4">
-        <v>0.02847308861078008</v>
+        <v>0.02317270064657414</v>
       </c>
       <c r="Y4">
-        <v>-0.2152248843011233</v>
+        <v>0.08009563222900949</v>
       </c>
       <c r="Z4">
-        <v>0.1625631313131313</v>
+        <v>0.1530655671721244</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>0.0343351602139167</v>
       </c>
       <c r="AB4">
-        <v>0.02660777548307719</v>
+        <v>0.01759935977475864</v>
       </c>
       <c r="AC4">
-        <v>-0.02660777548307719</v>
+        <v>0.01673580043915806</v>
       </c>
       <c r="AD4">
-        <v>38.3</v>
+        <v>651.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>38.3</v>
+        <v>651.4</v>
       </c>
       <c r="AG4">
-        <v>-15</v>
+        <v>651.393</v>
       </c>
       <c r="AH4">
-        <v>0.1663048198002605</v>
+        <v>0.581192005710207</v>
       </c>
       <c r="AI4">
-        <v>0.1025435073627845</v>
+        <v>0.5693558255397255</v>
       </c>
       <c r="AJ4">
-        <v>-0.0847457627118644</v>
+        <v>0.5811893900122502</v>
       </c>
       <c r="AK4">
-        <v>-0.04684572142410993</v>
+        <v>0.5693531906934139</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>7.54</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>-6.46</v>
+      </c>
+      <c r="AN4">
+        <v>17.09711286089239</v>
+      </c>
+      <c r="AO4">
+        <v>3.156498673740053</v>
+      </c>
+      <c r="AP4">
+        <v>17.09692913385827</v>
+      </c>
+      <c r="AQ4">
+        <v>-3.68421052631579</v>
       </c>
     </row>
     <row r="5">
@@ -960,127 +978,365 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Finance House P.J.S.C. (ADX:FH)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D5">
+        <v>-0.0098</v>
+      </c>
+      <c r="E5">
+        <v>-0.327</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>2.58</v>
+      </c>
+      <c r="L5">
+        <v>0.043</v>
+      </c>
+      <c r="M5">
+        <v>8.270999999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.0534993531694696</v>
+      </c>
+      <c r="O5">
+        <v>3.205813953488372</v>
+      </c>
+      <c r="P5">
+        <v>7.89</v>
+      </c>
+      <c r="Q5">
+        <v>0.05103492884864166</v>
+      </c>
+      <c r="R5">
+        <v>3.058139534883721</v>
+      </c>
+      <c r="S5">
+        <v>0.3809999999999993</v>
+      </c>
+      <c r="T5">
+        <v>0.04606456293072173</v>
+      </c>
+      <c r="U5">
+        <v>3.95</v>
+      </c>
+      <c r="V5">
+        <v>0.02554980595084088</v>
+      </c>
+      <c r="W5">
+        <v>0.01347258485639687</v>
+      </c>
+      <c r="X5">
+        <v>0.02058401163005389</v>
+      </c>
+      <c r="Y5">
+        <v>-0.007111426773657026</v>
+      </c>
+      <c r="Z5">
+        <v>0.2618600794308908</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0.01643013405325759</v>
+      </c>
+      <c r="AC5">
+        <v>-0.01643013405325759</v>
+      </c>
+      <c r="AD5">
+        <v>110.4</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>110.4</v>
+      </c>
+      <c r="AG5">
+        <v>106.45</v>
+      </c>
+      <c r="AH5">
+        <v>0.4166037735849057</v>
+      </c>
+      <c r="AI5">
+        <v>0.3466248037676609</v>
+      </c>
+      <c r="AJ5">
+        <v>0.40777628806742</v>
+      </c>
+      <c r="AK5">
+        <v>0.3384199650294071</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Amlak Finance PJSC (DFM:AMLAK)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
+        </is>
+      </c>
+      <c r="D6">
+        <v>-0.28</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>-133.7</v>
+      </c>
+      <c r="L6">
+        <v>-4.758007117437722</v>
+      </c>
+      <c r="M6">
+        <v>2.73</v>
+      </c>
+      <c r="N6">
+        <v>0.0267909715407262</v>
+      </c>
+      <c r="O6">
+        <v>-0.02041884816753927</v>
+      </c>
+      <c r="P6">
+        <v>-0</v>
+      </c>
+      <c r="Q6">
+        <v>-0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>2.73</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>65.5</v>
+      </c>
+      <c r="V6">
+        <v>0.6427870461236506</v>
+      </c>
+      <c r="W6">
+        <v>-0.4359308770785784</v>
+      </c>
+      <c r="X6">
+        <v>0.01958210768520284</v>
+      </c>
+      <c r="Y6">
+        <v>-0.4555129847637813</v>
+      </c>
+      <c r="Z6">
+        <v>0.09633184778882414</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.0177107402593985</v>
+      </c>
+      <c r="AC6">
+        <v>-0.0177107402593985</v>
+      </c>
+      <c r="AD6">
+        <v>46.2</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>46.2</v>
+      </c>
+      <c r="AG6">
+        <v>-19.3</v>
+      </c>
+      <c r="AH6">
+        <v>0.3119513841998649</v>
+      </c>
+      <c r="AI6">
+        <v>0.2329803328290469</v>
+      </c>
+      <c r="AJ6">
+        <v>-0.2336561743341404</v>
+      </c>
+      <c r="AK6">
+        <v>-0.1453313253012048</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>Al Waha Capital PJSC (ADX:WAHA)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Financial Svcs. (Non-bank &amp; Insurance)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.199</v>
-      </c>
-      <c r="G5">
-        <v>-0.5494880546075085</v>
-      </c>
-      <c r="H5">
-        <v>-0.5494880546075085</v>
-      </c>
-      <c r="I5">
-        <v>-0.4971558589306029</v>
-      </c>
-      <c r="J5">
-        <v>-0.4971558589306029</v>
-      </c>
-      <c r="K5">
-        <v>-146.3</v>
-      </c>
-      <c r="L5">
-        <v>-1.664391353811149</v>
-      </c>
-      <c r="M5">
-        <v>37.5</v>
-      </c>
-      <c r="N5">
-        <v>0.07492507492507493</v>
-      </c>
-      <c r="O5">
-        <v>-0.2563226247436773</v>
-      </c>
-      <c r="P5">
-        <v>37.5</v>
-      </c>
-      <c r="Q5">
-        <v>0.07492507492507493</v>
-      </c>
-      <c r="R5">
-        <v>-0.2563226247436773</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>216.4</v>
-      </c>
-      <c r="V5">
-        <v>0.4323676323676324</v>
-      </c>
-      <c r="W5">
-        <v>-0.1586251761899599</v>
-      </c>
-      <c r="X5">
-        <v>0.03995032996440089</v>
-      </c>
-      <c r="Y5">
-        <v>-0.1985755061543608</v>
-      </c>
-      <c r="Z5">
-        <v>0.03421964417798887</v>
-      </c>
-      <c r="AA5">
-        <v>-0.01701249659360766</v>
-      </c>
-      <c r="AB5">
-        <v>0.02060752856195174</v>
-      </c>
-      <c r="AC5">
-        <v>-0.0376200251555594</v>
-      </c>
-      <c r="AD5">
-        <v>1600</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>1600</v>
-      </c>
-      <c r="AG5">
-        <v>1383.6</v>
-      </c>
-      <c r="AH5">
-        <v>0.7617233991906689</v>
-      </c>
-      <c r="AI5">
-        <v>0.5891233108730071</v>
-      </c>
-      <c r="AJ5">
-        <v>0.7343559259062682</v>
-      </c>
-      <c r="AK5">
-        <v>0.5535507101420284</v>
-      </c>
-      <c r="AL5">
-        <v>55</v>
-      </c>
-      <c r="AM5">
-        <v>-10.09999999999999</v>
-      </c>
-      <c r="AN5">
-        <v>-43.71584699453552</v>
-      </c>
-      <c r="AO5">
-        <v>-0.7945454545454546</v>
-      </c>
-      <c r="AP5">
-        <v>-37.80327868852459</v>
-      </c>
-      <c r="AQ5">
-        <v>4.32673267326733</v>
+      <c r="D7">
+        <v>0.0457</v>
+      </c>
+      <c r="G7">
+        <v>-0.5249088699878494</v>
+      </c>
+      <c r="H7">
+        <v>-0.5249088699878494</v>
+      </c>
+      <c r="I7">
+        <v>-0.5127582017010937</v>
+      </c>
+      <c r="J7">
+        <v>-0.5127582017010937</v>
+      </c>
+      <c r="K7">
+        <v>-46.4</v>
+      </c>
+      <c r="L7">
+        <v>-0.5637910085054678</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>271.1</v>
+      </c>
+      <c r="V7">
+        <v>0.4513068087231563</v>
+      </c>
+      <c r="W7">
+        <v>-0.05906313645621181</v>
+      </c>
+      <c r="X7">
+        <v>0.02542772014895301</v>
+      </c>
+      <c r="Y7">
+        <v>-0.08449085660516482</v>
+      </c>
+      <c r="Z7">
+        <v>0.03794025447169463</v>
+      </c>
+      <c r="AA7">
+        <v>-0.01945417665498802</v>
+      </c>
+      <c r="AB7">
+        <v>0.01559365822074839</v>
+      </c>
+      <c r="AC7">
+        <v>-0.0350478348757364</v>
+      </c>
+      <c r="AD7">
+        <v>1186.1</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>1186.1</v>
+      </c>
+      <c r="AG7">
+        <v>914.9999999999999</v>
+      </c>
+      <c r="AH7">
+        <v>0.6638124020595477</v>
+      </c>
+      <c r="AI7">
+        <v>0.5228795626873568</v>
+      </c>
+      <c r="AJ7">
+        <v>0.6036814673088342</v>
+      </c>
+      <c r="AK7">
+        <v>0.4581184599208932</v>
+      </c>
+      <c r="AL7">
+        <v>41.3</v>
+      </c>
+      <c r="AM7">
+        <v>-22.5</v>
+      </c>
+      <c r="AN7">
+        <v>-32.23097826086956</v>
+      </c>
+      <c r="AO7">
+        <v>-1.02179176755448</v>
+      </c>
+      <c r="AP7">
+        <v>-24.86413043478261</v>
+      </c>
+      <c r="AQ7">
+        <v>1.875555555555556</v>
       </c>
     </row>
   </sheetData>
